--- a/data/MSME Country Indicators - Guyana Summary.xlsx
+++ b/data/MSME Country Indicators - Guyana Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Guyana</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: SME Associations (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -47,6 +50,18 @@
   </si>
   <si>
     <t>Source: IDB, 1998</t>
+  </si>
+  <si>
+    <t>Value added to the economy (% of total)</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>IDB</t>
+  </si>
+  <si>
+    <t>Inter-American Development Bank. Guyana Redd+ Investment Fund (GRIF), Micro and Small Enterprise Development, Implementing Agency: Small Business Bureau, Ministry of Tourism, Industry and Commerce, Quick Facts. Avaliable at http://www.guyanareddfund.org/index.php?option=com_content&amp;view=article&amp;id=99&amp;Itemid=129</t>
   </si>
 </sst>
 </file>
@@ -54,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -65,6 +80,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -97,26 +118,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -124,7 +148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -140,50 +164,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Guyana Summary.xlsx
+++ b/data/MSME Country Indicators - Guyana Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Guyana</t>
   </si>
@@ -56,6 +56,27 @@
   </si>
   <si>
     <t>28</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
   </si>
   <si>
     <t>IDB</t>
@@ -148,7 +169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -239,14 +260,81 @@
         <v>12</v>
       </c>
     </row>
+    <row r="21">
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
+      <c r="A24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
+      <c r="A25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Guyana Summary.xlsx
+++ b/data/MSME Country Indicators - Guyana Summary.xlsx
@@ -219,9 +219,6 @@
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">

--- a/data/MSME Country Indicators - Guyana Summary.xlsx
+++ b/data/MSME Country Indicators - Guyana Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Guyana</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>IDB</t>
-  </si>
-  <si>
-    <t>Inter-American Development Bank. Guyana Redd+ Investment Fund (GRIF), Micro and Small Enterprise Development, Implementing Agency: Small Business Bureau, Ministry of Tourism, Industry and Commerce, Quick Facts. Avaliable at http://www.guyanareddfund.org/index.php?option=com_content&amp;view=article&amp;id=99&amp;Itemid=129</t>
   </si>
 </sst>
 </file>
@@ -331,7 +328,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Guyana Summary.xlsx
+++ b/data/MSME Country Indicators - Guyana Summary.xlsx
@@ -40,7 +40,7 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>29.8</t>
+    <t>29.83</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
